--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2194599.790483874</v>
+        <v>2192223.163536508</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>193.1744606091098</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>164.7731592810856</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>185.5217629586822</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>14.41370178612662</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>56.70882917873416</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>96.97633795874984</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>10.19019491317144</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>98.23021146256004</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>250.5729452324108</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>50.9807481254283</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>218.6880288329279</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503923</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740332</v>
       </c>
       <c r="I16" t="n">
-        <v>19.86507844888302</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520963</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>105.1162657551296</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805175974</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.14614278817813</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.3062202753126</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740365</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141674</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>992.2105668866554</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>623.2480499462438</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>264.9823513394933</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>264.9823513394933</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>258.0368505902898</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>246.3725043549828</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.949738926589</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1768.949738926589</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1378.810406950777</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4401,25 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>845.9911918222189</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>767.0814070827663</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>767.0814070827663</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>767.0814070827663</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>619.1683135003732</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>472.2783660024628</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827663</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>767.0814070827663</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>767.0814070827663</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>767.0814070827663</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660.900948886693</v>
+        <v>1589.988596769088</v>
       </c>
       <c r="C5" t="n">
-        <v>1291.938431946282</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="D5" t="n">
-        <v>933.6727333395313</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="E5" t="n">
-        <v>547.884480741287</v>
+        <v>835.2378272304325</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>828.292326481229</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>412.5875762055178</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>108.5284322030881</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872918</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926627</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926627</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926627</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926627</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926627</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.500788950815</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143488</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458207</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>831.7113734044287</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
-        <v>662.7751904765219</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1538.490223146467</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.86271359008</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1523.569587415159</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="W7" t="n">
-        <v>1234.152417378199</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="X7" t="n">
-        <v>1234.152417378199</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y7" t="n">
-        <v>1013.359838234668</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1213.292347699871</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C8" t="n">
-        <v>844.329830759459</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190807</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847236</v>
+        <v>2007.354797762287</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847236</v>
+        <v>1654.586142492173</v>
       </c>
       <c r="X8" t="n">
-        <v>1852.996172847236</v>
+        <v>1281.120384231093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1599.892187763993</v>
+        <v>890.9810522552812</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103101001</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1922.533821476953</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885493</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606424</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1584.950414897297</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>869.6648135671836</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>648.7678147460443</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>420.778263848027</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.751114818789</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,25 +5051,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101821</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978464</v>
+        <v>363.736961327734</v>
       </c>
       <c r="E16" t="n">
-        <v>422.7903292978464</v>
+        <v>363.736961327734</v>
       </c>
       <c r="F16" t="n">
-        <v>422.7903292978464</v>
+        <v>216.8470138298236</v>
       </c>
       <c r="G16" t="n">
-        <v>255.5942300127263</v>
+        <v>216.8470138298236</v>
       </c>
       <c r="H16" t="n">
-        <v>113.8823988549244</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703095</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5504,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>889.0190760550117</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>738.902436642676</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>590.9893430602829</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782949</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.396302956688</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.603723813158</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179773</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570816</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6701,16 +6701,16 @@
         <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832228</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>216.8470138298269</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7190,10 +7190,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723914</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723914</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7339,7 +7339,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,13 +7348,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487568</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7427,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>671.2000270096652</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>255.5240487471572</v>
+        <v>114.3555089013352</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780633</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>98.24448441976836</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>162.0073097921328</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>280.1079373569281</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-8.503700092245722e-13</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.077743684667804e-12</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-1.589334454415076e-12</v>
       </c>
       <c r="R38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823553</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557219066</v>
       </c>
       <c r="I16" t="n">
-        <v>61.4007578696825</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>40.30478226780161</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948094</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194353</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.2784330767822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823237</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124953</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667956</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323795</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>833424.7043323795</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>833424.7043323795</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>833424.7043323795</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="14">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516049</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516055</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516053</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516052</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516052</v>
-      </c>
       <c r="E2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752544</v>
-      </c>
       <c r="G2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752547</v>
@@ -26338,22 +26338,22 @@
         <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707354</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707335</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707332</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707335</v>
+        <v>6897.42449670739</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707349</v>
+        <v>6897.424496707365</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670735</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-744343.9996957844</v>
       </c>
       <c r="C6" t="n">
+        <v>370407.7838801359</v>
+      </c>
+      <c r="D6" t="n">
         <v>370407.7838801356</v>
       </c>
-      <c r="D6" t="n">
-        <v>370407.7838801355</v>
-      </c>
       <c r="E6" t="n">
-        <v>-30324.11116990577</v>
+        <v>-30358.84909534179</v>
       </c>
       <c r="F6" t="n">
-        <v>477161.3304546399</v>
+        <v>477126.5925292043</v>
       </c>
       <c r="G6" t="n">
-        <v>477161.3304546396</v>
+        <v>477126.5925292043</v>
       </c>
       <c r="H6" t="n">
-        <v>477161.3304546401</v>
+        <v>477126.5925292044</v>
       </c>
       <c r="I6" t="n">
-        <v>477161.3304546399</v>
+        <v>477126.5925292042</v>
       </c>
       <c r="J6" t="n">
-        <v>309556.1526446573</v>
+        <v>309521.4147192215</v>
       </c>
       <c r="K6" t="n">
-        <v>477161.3304546401</v>
+        <v>477126.5925292042</v>
       </c>
       <c r="L6" t="n">
-        <v>477161.3304546398</v>
+        <v>477126.5925292042</v>
       </c>
       <c r="M6" t="n">
-        <v>344554.0367257132</v>
+        <v>344519.2988002773</v>
       </c>
       <c r="N6" t="n">
-        <v>477161.3304546399</v>
+        <v>477126.5925292043</v>
       </c>
       <c r="O6" t="n">
-        <v>477161.3304546399</v>
+        <v>477126.5925292039</v>
       </c>
       <c r="P6" t="n">
-        <v>477161.3304546399</v>
+        <v>477126.5925292043</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,10 +26990,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>107.8440919532955</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.533440763718545</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>40.18789243035491</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>392.4623439555848</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9.001083493736331</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.581234460823794</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>241.9474484106566</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>108.4279735176737</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>135.6649934236428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,16 +28062,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>235.2464059957723</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>67.83496950366313</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29278,16 +29278,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,34 +31276,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963282</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175677</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,31 +33974,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092783</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,34 +34208,34 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897912</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>553.2044093850075</v>
+        <v>412.0358695391854</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215482</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>347.9240135433006</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000391</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>553.2044093850068</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>529.7874664804604</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060407</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295256</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096333</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.348781916454</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37309,7 +37309,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
         <v>735.300110790295</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37479,7 +37479,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066263</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>27.13475084531435</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991702</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
